--- a/summary_not_imputed.xlsx
+++ b/summary_not_imputed.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="31">
   <si>
     <t>CIs</t>
   </si>
@@ -65,7 +65,13 @@
     <t>20_55</t>
   </si>
   <si>
-    <t>20_60</t>
+    <t>10_80</t>
+  </si>
+  <si>
+    <t>15_80</t>
+  </si>
+  <si>
+    <t>20_80</t>
   </si>
   <si>
     <t>WJ3</t>
@@ -177,7 +183,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
         <v>22.0</v>
@@ -194,7 +200,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -211,7 +217,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>22.0</v>
@@ -228,7 +234,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>9.0</v>
@@ -245,7 +251,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>27.0</v>
@@ -262,7 +268,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>16.0</v>
@@ -279,7 +285,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>27.0</v>
@@ -296,7 +302,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -313,7 +319,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
         <v>27.0</v>
@@ -330,7 +336,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -347,7 +353,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
         <v>40.0</v>
@@ -364,7 +370,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
         <v>21.0</v>
@@ -381,7 +387,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
         <v>40.0</v>
@@ -398,7 +404,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
         <v>21.0</v>
@@ -415,7 +421,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
         <v>27.0</v>
@@ -432,7 +438,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -449,7 +455,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -466,7 +472,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
         <v>9.0</v>
@@ -483,7 +489,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
         <v>40.0</v>
@@ -500,7 +506,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
         <v>21.0</v>
@@ -514,104 +520,104 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>40.0</v>
+        <v>22.0</v>
       </c>
       <c r="D22" t="n">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="E22" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="D23" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="E23" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="n">
-        <v>40.0</v>
+        <v>27.0</v>
       </c>
       <c r="D24" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="E24" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="D25" t="n">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="E25" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="n">
         <v>40.0</v>
       </c>
       <c r="D26" t="n">
-        <v>28.0</v>
+        <v>12.0</v>
       </c>
       <c r="E26" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="n">
         <v>21.0</v>
       </c>
       <c r="D27" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="E27" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -632,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -649,10 +655,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
         <v>0.0714635221551145</v>
@@ -664,10 +670,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
         <v>0.686399974781667</v>
@@ -679,10 +685,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
         <v>0.328043298165683</v>
@@ -694,10 +700,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
         <v>0.527437084673952</v>
@@ -709,10 +715,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.248845189483293</v>
@@ -724,10 +730,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
         <v>0.2139588020656</v>
@@ -739,10 +745,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
         <v>0.233284295110436</v>
@@ -754,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
         <v>0.143745559140837</v>
@@ -769,16 +775,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
         <v>0.0440117798007973</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -786,10 +792,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
         <v>0.28385193618977</v>
@@ -801,10 +807,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
         <v>0.504836226137496</v>
@@ -816,10 +822,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
         <v>0.393011000657056</v>
@@ -831,10 +837,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
         <v>0.119891986581918</v>
@@ -846,10 +852,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
         <v>0.505921877560542</v>
@@ -861,10 +867,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
         <v>0.403421131765026</v>
@@ -876,10 +882,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
         <v>0.11736837659418</v>
@@ -891,10 +897,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" t="n">
         <v>0.337548441862057</v>
@@ -906,10 +912,10 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
         <v>0.583688987203482</v>
@@ -921,10 +927,10 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" t="n">
         <v>0.753493200472922</v>
@@ -936,10 +942,10 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
         <v>0.24387166234878</v>
@@ -948,91 +954,91 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119891986581918</v>
+        <v>0.241727079680261</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" t="n">
-        <v>0.505921877560542</v>
+        <v>0.421330180789597</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24" t="n">
-        <v>0.500488472924856</v>
+        <v>0.190020717203236</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.294775403270876</v>
+        <v>0.167246568758737</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
-        <v>0.504836226137496</v>
+        <v>0.376412215640762</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27" t="n">
-        <v>0.393011000657056</v>
+        <v>0.280078988775646</v>
       </c>
       <c r="E27"/>
     </row>
@@ -1054,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -1071,16 +1077,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>4.27952741484761E-9</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -1088,10 +1094,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
         <v>0.223894214708995</v>
@@ -1103,16 +1109,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
         <v>1.57714316151103E-9</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1120,10 +1126,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
         <v>0.231852231883558</v>
@@ -1135,16 +1141,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
         <v>5.72553064265352E-9</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1152,16 +1158,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0.0392732587466651</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -1169,16 +1175,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>1.18690665217185E-9</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -1186,16 +1192,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
         <v>0.0383452707728954</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -1203,16 +1209,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
         <v>3.56804762637979E-9</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -1220,10 +1226,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>0.0732363848566301</v>
@@ -1235,16 +1241,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
         <v>1.29821018980892E-9</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -1252,16 +1258,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
         <v>0.0430579313333805</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -1269,16 +1275,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>6.49697610358827E-10</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -1286,10 +1292,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
         <v>0.0816963702640017</v>
@@ -1301,16 +1307,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
         <v>5.81613792581472E-11</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -1318,16 +1324,16 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>0.0149287353909017</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -1335,16 +1341,16 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
         <v>7.33963343407021E-9</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1352,10 +1358,10 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
         <v>0.140947902896723</v>
@@ -1367,16 +1373,16 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
         <v>1.35338881912707E-11</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -1384,116 +1390,116 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
         <v>0.0150834714931009</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
-        <v>6.49697610358827E-10</v>
+        <v>6.36399763298046E-7</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0816963702640017</v>
+        <v>0.0669071401067766</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24" t="n">
-        <v>2.56453447142355E-10</v>
+        <v>5.65535579224296E-7</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25" t="n">
-        <v>0.039566174594476</v>
+        <v>0.034381111060268</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
-        <v>1.29821018980892E-9</v>
+        <v>1.28979641276887E-7</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0430579313333805</v>
+        <v>0.0387534107257434</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1514,16 +1520,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -1531,10 +1537,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>0.0962200764909409</v>
@@ -1546,16 +1552,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>6.11447981585271E-8</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -1563,10 +1569,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
         <v>0.248188178255593</v>
@@ -1578,16 +1584,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
         <v>1.34144431225567E-7</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -1595,10 +1601,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>0.173589051661787</v>
@@ -1610,16 +1616,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>8.68468954355862E-9</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -1627,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>0.283927869949015</v>
@@ -1642,16 +1648,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
         <v>3.50842947044926E-8</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -1659,10 +1665,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
         <v>0.12801911502878</v>
@@ -1674,16 +1680,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
         <v>1.9268008704133E-8</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -1691,10 +1697,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>0.172519734658504</v>
@@ -1706,16 +1712,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
         <v>4.36008744011747E-9</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -1723,10 +1729,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
         <v>0.127037320025238</v>
@@ -1738,16 +1744,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
         <v>9.64709083521655E-9</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -1755,10 +1761,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
         <v>0.106001485519116</v>
@@ -1770,16 +1776,16 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
         <v>2.6453391834988E-9</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -1787,10 +1793,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>0.144576914770697</v>
@@ -1802,16 +1808,16 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
         <v>3.01424961826248E-8</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -1819,10 +1825,10 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>0.109363978507674</v>
@@ -1834,112 +1840,112 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
         <v>1.44660691558314E-9</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>0.127037320025238</v>
+        <v>0.239735979224746</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
-        <v>9.64709083521655E-9</v>
+        <v>3.98204056737637E-11</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>0.280219453743495</v>
+        <v>0.280372275820169</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25" t="n">
-        <v>1.92823928410497E-8</v>
+        <v>6.84550213252813E-11</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172519734658504</v>
+        <v>0.278448418315867</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" t="n">
-        <v>4.36008744011747E-9</v>
+        <v>4.29235673595039E-11</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1960,16 +1966,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -1977,10 +1983,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>0.571174658733407</v>
@@ -1992,10 +1998,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>0.606808286656356</v>
@@ -2007,10 +2013,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>0.207222049441227</v>
@@ -2022,10 +2028,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>0.294438704405948</v>
@@ -2037,10 +2043,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
         <v>0.104009290530457</v>
@@ -2052,10 +2058,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
         <v>0.117643154383526</v>
@@ -2067,10 +2073,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>0.119556691315817</v>
@@ -2082,10 +2088,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>0.0648198042779497</v>
@@ -2097,10 +2103,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>0.443311154748279</v>
@@ -2112,10 +2118,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
         <v>0.115224158537118</v>
@@ -2127,10 +2133,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
         <v>0.0769920326225721</v>
@@ -2142,10 +2148,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
         <v>0.270980667450568</v>
@@ -2157,10 +2163,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
         <v>0.452663460870761</v>
@@ -2172,10 +2178,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
         <v>0.272190449839583</v>
@@ -2187,10 +2193,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>0.105907454116676</v>
@@ -2202,10 +2208,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>0.0729286949093231</v>
@@ -2217,10 +2223,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>0.178037178956798</v>
@@ -2232,10 +2238,10 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
         <v>0.515904660082993</v>
@@ -2247,10 +2253,10 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>0.0760743704657297</v>
@@ -2262,10 +2268,10 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>0.154421840392254</v>
@@ -2274,91 +2280,91 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>0.452663460870761</v>
+        <v>0.363202595281153</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>0.272190449839583</v>
+        <v>0.720390941524511</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0866771314350991</v>
+        <v>0.262269848131394</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
-        <v>0.142189427060957</v>
+        <v>0.241097616928936</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0769920326225721</v>
+        <v>0.270854129153117</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270980667450568</v>
+        <v>0.482796597884637</v>
       </c>
       <c r="E27"/>
     </row>
@@ -2380,16 +2386,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -2397,10 +2403,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
         <v>0.80568816015886</v>
@@ -2412,10 +2418,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>0.478030943502763</v>
@@ -2427,10 +2433,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>0.98858396895192</v>
@@ -2442,10 +2448,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.421818396222857</v>
@@ -2457,10 +2463,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>0.988376910672645</v>
@@ -2472,10 +2478,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>0.165613596639476</v>
@@ -2487,10 +2493,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>0.942634094344482</v>
@@ -2502,10 +2508,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>0.113114689548173</v>
@@ -2517,10 +2523,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
         <v>0.901522065023831</v>
@@ -2532,10 +2538,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>0.201220996512632</v>
@@ -2547,10 +2553,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
         <v>0.999484606607275</v>
@@ -2562,10 +2568,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
         <v>0.148535932609734</v>
@@ -2577,10 +2583,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
         <v>0.823034717633152</v>
@@ -2592,10 +2598,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
         <v>0.182840442073751</v>
@@ -2607,10 +2613,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
         <v>0.890322770370599</v>
@@ -2622,10 +2628,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>0.115824720757194</v>
@@ -2637,10 +2643,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
         <v>0.995389787905809</v>
@@ -2652,10 +2658,10 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
         <v>0.428596845144487</v>
@@ -2667,10 +2673,10 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>0.930339172758195</v>
@@ -2682,10 +2688,10 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>0.0983256223587344</v>
@@ -2694,91 +2700,91 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
-        <v>0.823034717633152</v>
+        <v>0.861542831044897</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>0.182840442073751</v>
+        <v>0.205455853595669</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>0.971067230742677</v>
+        <v>0.938155988975212</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0929723339721755</v>
+        <v>0.0868309464780718</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
-        <v>0.999484606607275</v>
+        <v>0.889806843987936</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
-        <v>0.148535932609734</v>
+        <v>0.0760423626062888</v>
       </c>
       <c r="E27"/>
     </row>
@@ -2800,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -2817,10 +2823,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
         <v>0.94942324418922</v>
@@ -2832,10 +2838,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>0.958650652944571</v>
@@ -2847,10 +2853,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>0.875783495828949</v>
@@ -2862,10 +2868,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
         <v>0.886231070014054</v>
@@ -2877,10 +2883,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>0.66350668160562</v>
@@ -2892,10 +2898,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0.779728831779006</v>
@@ -2907,10 +2913,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
         <v>0.560791324322465</v>
@@ -2922,10 +2928,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>0.706120376520464</v>
@@ -2937,10 +2943,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
         <v>0.809357912924368</v>
@@ -2952,10 +2958,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
         <v>0.841955554542788</v>
@@ -2967,10 +2973,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
         <v>0.583814908348004</v>
@@ -2982,10 +2988,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
         <v>0.682809487737536</v>
@@ -2997,10 +3003,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
         <v>0.767422513785817</v>
@@ -3012,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
         <v>0.754355670880504</v>
@@ -3027,10 +3033,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
         <v>0.281194102561598</v>
@@ -3042,10 +3048,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
         <v>0.529921969478905</v>
@@ -3057,10 +3063,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>0.9459621999636</v>
@@ -3072,10 +3078,10 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
         <v>0.917975076038889</v>
@@ -3087,10 +3093,10 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
         <v>0.230851141797281</v>
@@ -3102,10 +3108,10 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
         <v>0.420706292469333</v>
@@ -3114,91 +3120,91 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>0.767422513785817</v>
+        <v>0.489826767797112</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>0.754355670880504</v>
+        <v>0.449203222025582</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>0.474404067767644</v>
+        <v>0.558997292250528</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0.590457198011452</v>
+        <v>0.328143400903608</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>0.583814908348004</v>
+        <v>0.618291035358177</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>0.682809487737536</v>
+        <v>0.274452091519035</v>
       </c>
       <c r="E27"/>
     </row>
